--- a/satd_issue_dataset_Java.xlsx
+++ b/satd_issue_dataset_Java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B278F79F-1834-C047-8A5B-C1E921AF1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4AE2F1BB-ADFD-3F49-8131-57FE1612F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33700" windowHeight="28300"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="248">
   <si>
     <t>Issue</t>
   </si>
@@ -496,6 +496,10 @@
   <si>
     <t>[Content]RPCUtil メソッドを統合する
 [Class]メソッドの統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unknown</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -733,6 +737,285 @@
   <si>
     <t>[Content]一貫性のないライブラリ バージョンの通知
 [Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]configmap で JAVA_OPT を生成する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]K8s の Alluxio マスター コンテナの initContainer でジャーナルをフォーマットする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Alluxio fuse と Java クライアントのパフォーマンス ギャップ
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CVE に対処するための Netty と grpc の更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいファイルが生成されたときに、クライアント側のメタデータ キャッシュでエントリを無効にすることを有効にする
+[Class]機能の改善</t>
+    <rPh sb="72" eb="74">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gRPC リンク レベル認証
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RATIS を 2.0.0 に上げます
+[Class]ツールのアップデート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]conf アドレスをサーバーアドレスとマージする
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]数百万のファイルの分散トレーニングにおけるリモート読み取りパフォーマンスの向上
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Fuse IO ストレスベンチ
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コードのテストではなくパフォーマンスのテスト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Alluxio FS クライアントのパーティション耐性を改善
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定なEmbeddedJournalIntegrationTestTrasnfer#replaceAll統合テストを有効にする
+[Class]テストの有効化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LocalFirstRaftClient のフォールバック ポリシーを削除する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BlockWorkerGrpc の実装がどこにあるかわかりません
+[Class]プロジェクト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Raft がリーダーシップを引き継ぐのに時間がかかりすぎた
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリング マスターの maxThroughput ストレス ベンチマーク
+[Class]ベンチマークの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Alluxio Fuse echo "append" &gt;&gt; existing_file が失敗
+[Class]コードの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]请问サポートBeeGfs文件系统吗?
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]log4j アップグレードで AlluxioLog4jSocketNode オブジェクトのホワイト リストに UT が必要
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HelpfulSuggestions をリファクタリングして、多数のパラメーターを挿入しないようにする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]代わりに Optional を使用するように nullable を返すように変更
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]キャッシュ エントリの書き込みに使用される Blob ユーティリティ メソッドを再編成する
+[Class]機能の改善</t>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CacheStorage インターフェイスの削除を検討中
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の extraDirectory と関連する構成を削除する
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]skaffold-files v1 タスク/目標を削除する
+[Class]他のツールへの対応</t>
+    <rPh sb="46" eb="47">
+      <t xml:space="preserve">タノツールヘノ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LockFileTest の失敗
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ProjectInfo.VERSION をリファクタリングし、クライアント ツールから直接入力する
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LayerEntry の LayerConfiguration へのバックリーチを防止する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Maven - 非推奨の @Component アノテーションの警告
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ジブのビルドが複雑
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プログレスフッター表示に関する不安定なテスト
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Javadoc 警告がある場合はビルドに失敗する
+[Class]ビルドの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MacOS で時折不安定なテスト: SingleThreadedExecutorTest.testExecute_mutualExclusion
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]3 状態の PreparedLayer.existsInTarget には、Optional&lt;Boolean&gt; の代わりに列挙型を使用
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]container.useCurrentTimestamp を削除
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HelpfulSuggestions.forNoCredentialsDefined の単純化
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Blob javadoc は出力ストリームを閉じないと言っているが、その実装のいくつかは閉じている
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]guava-HEAD-jre を取得できないため、ビルドは何度も失敗する
+[Class]ビルドの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の jibDockerBuild.dockerClient パラメータを削除
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TlsFailoverHttpClient に close() または shutDown() を実装する
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RegistryEndpointProvider インターフェースで「デフォルト」の実装を提供しない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レジストリ認証を最適化する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AbstractArchiveTask メソッドの非推奨警告
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レジストリ クライアントは null ユーザー エージェント文字列を受け入れる必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ImageReference タグを再確認する
+[Class]コード理解</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]jib-maven-plugin:test ソース (assertThat) での非推奨警告
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BuildContext をインスタンス化するときに ContainerConfiguration を必須にする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]--console=plainを使用すると、ビルド出力でシアンのカラーリングを無効にする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sourceModificationTime が変更される、jib cli jar コードで jar をアンパックする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content][jib-cli-jar] JarModeProcessor の再構築
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>インターフェースも関係してそう</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カンケイシテソウ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1700,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1877,13 +2160,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
         <v>136</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="63">
@@ -1894,13 +2177,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
         <v>136</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="63">
@@ -1911,13 +2194,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
         <v>136</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="63">
@@ -1931,7 +2214,7 @@
         <v>136</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -1945,7 +2228,7 @@
         <v>136</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -1956,10 +2239,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -1973,7 +2256,7 @@
         <v>136</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -1984,10 +2267,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -2001,10 +2284,10 @@
         <v>136</v>
       </c>
       <c r="E20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="63">
@@ -2018,7 +2301,7 @@
         <v>136</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="63">
@@ -2032,7 +2315,7 @@
         <v>136</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -2046,7 +2329,7 @@
         <v>136</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -2060,7 +2343,7 @@
         <v>136</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -2074,7 +2357,7 @@
         <v>136</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -2088,7 +2371,7 @@
         <v>136</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -2099,10 +2382,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -2113,10 +2396,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -2130,7 +2413,7 @@
         <v>136</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -2144,7 +2427,7 @@
         <v>136</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -2155,10 +2438,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="63">
@@ -2172,7 +2455,7 @@
         <v>136</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="63">
@@ -2186,7 +2469,7 @@
         <v>136</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -2200,7 +2483,7 @@
         <v>142</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -2211,10 +2494,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -2228,7 +2511,7 @@
         <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -2242,7 +2525,7 @@
         <v>136</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -2256,7 +2539,7 @@
         <v>136</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -2270,7 +2553,7 @@
         <v>136</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -2284,7 +2567,7 @@
         <v>142</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -2295,10 +2578,10 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="63">
@@ -2312,7 +2595,7 @@
         <v>136</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="63">
@@ -2326,7 +2609,7 @@
         <v>136</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -2340,7 +2623,7 @@
         <v>136</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -2354,7 +2637,7 @@
         <v>136</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="63">
@@ -2368,7 +2651,7 @@
         <v>136</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -2382,7 +2665,7 @@
         <v>136</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -2396,7 +2679,7 @@
         <v>136</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -2407,10 +2690,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -2424,7 +2707,7 @@
         <v>136</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -2434,19 +2717,25 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="42">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="63">
       <c r="A52">
         <v>11141</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -2456,8 +2745,11 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
+      <c r="C53" t="s">
+        <v>168</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2467,19 +2759,25 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+      <c r="C54" t="s">
+        <v>186</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="42">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="63">
       <c r="A55">
         <v>13186</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -2489,8 +2787,11 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -2500,8 +2801,11 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
+      <c r="C57" t="s">
+        <v>186</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -2511,19 +2815,25 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="42">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="63">
       <c r="A59">
         <v>14028</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -2533,8 +2843,17 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" t="s">
+        <v>206</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -2544,19 +2863,25 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="42">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="63">
       <c r="A62">
         <v>14165</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>142</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -2566,8 +2891,11 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -2577,8 +2905,11 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
+      <c r="C64" t="s">
+        <v>155</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -2588,8 +2919,14 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" t="s">
+        <v>168</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -2599,8 +2936,11 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -2610,8 +2950,11 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -2621,30 +2964,39 @@
       <c r="B68" t="s">
         <v>68</v>
       </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="42">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="63">
       <c r="A69">
         <v>14767</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="42">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="63">
       <c r="A70">
         <v>856</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -2654,19 +3006,25 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="42">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="63">
       <c r="A72">
         <v>1030</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -2676,8 +3034,11 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" t="s">
+        <v>136</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -2687,8 +3048,11 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -2698,8 +3062,11 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
+      <c r="C75" t="s">
+        <v>186</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -2709,19 +3076,25 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
+      <c r="C76" t="s">
+        <v>142</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="42">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="63">
       <c r="A77">
         <v>1716</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>136</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -2731,8 +3104,11 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
+      <c r="C78" t="s">
+        <v>142</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -2742,8 +3118,11 @@
       <c r="B79" t="s">
         <v>79</v>
       </c>
+      <c r="C79" t="s">
+        <v>174</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -2753,8 +3132,11 @@
       <c r="B80" t="s">
         <v>80</v>
       </c>
+      <c r="C80" t="s">
+        <v>186</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -2764,8 +3146,11 @@
       <c r="B81" t="s">
         <v>81</v>
       </c>
+      <c r="C81" t="s">
+        <v>142</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -2775,30 +3160,39 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
+      <c r="C82" t="s">
+        <v>174</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="42">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="63">
       <c r="A83">
         <v>1845</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="42">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="63">
       <c r="A84">
         <v>1867</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -2808,8 +3202,11 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
+      <c r="C85" t="s">
+        <v>186</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -2819,19 +3216,25 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="42">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="63">
       <c r="A87">
         <v>1944</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
       </c>
+      <c r="C87" t="s">
+        <v>136</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -2841,8 +3244,11 @@
       <c r="B88" t="s">
         <v>88</v>
       </c>
+      <c r="C88" t="s">
+        <v>174</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -2852,8 +3258,11 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -2863,19 +3272,25 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
+      <c r="C90" t="s">
+        <v>136</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="42">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="63">
       <c r="A91">
         <v>2117</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
       </c>
+      <c r="C91" t="s">
+        <v>136</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -2885,8 +3300,11 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
+      <c r="C92" t="s">
+        <v>136</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -2896,19 +3314,25 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
+      <c r="C93" t="s">
+        <v>186</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="42">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="63">
       <c r="A94">
         <v>2367</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
+      <c r="C94" t="s">
+        <v>136</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -2918,8 +3342,14 @@
       <c r="B95" t="s">
         <v>95</v>
       </c>
+      <c r="C95" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" t="s">
+        <v>136</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -2929,41 +3359,53 @@
       <c r="B96" t="s">
         <v>96</v>
       </c>
+      <c r="C96" t="s">
+        <v>186</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="42">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="63">
       <c r="A97">
         <v>2618</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
+      <c r="C97" t="s">
+        <v>136</v>
+      </c>
       <c r="F97" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="42">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="63">
       <c r="A98">
         <v>2764</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
       </c>
+      <c r="C98" t="s">
+        <v>136</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="42">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="63">
       <c r="A99">
         <v>2913</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
+      <c r="C99" t="s">
+        <v>136</v>
+      </c>
       <c r="F99" s="2" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -2973,8 +3415,14 @@
       <c r="B100" t="s">
         <v>100</v>
       </c>
+      <c r="C100" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" t="s">
+        <v>247</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">
